--- a/biology/Zoologie/Électropénétrographie/Électropénétrographie.xlsx
+++ b/biology/Zoologie/Électropénétrographie/Électropénétrographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrop%C3%A9n%C3%A9trographie</t>
+          <t>Électropénétrographie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électropénétrographie (EPG) est une technique utilisée par les biologistes pour étudier l'interaction entre les insectes piqueurs-suceurs, tels que les pucerons, les thrips et les cicadelles, et les plantes. 
 Par conséquent, elle peut également être utilisée pour étudier les bases de la transmission des virus aux plantes, de la sélection des plantes-hôtes par les insectes et de la manière dont les insectes peuvent repérer le phloème de ces plantes et s'en nourrir.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrop%C3%A9n%C3%A9trographie</t>
+          <t>Électropénétrographie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Le circuit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le circuit est relié d'une part à l'insecte par un fil d'or de 20 µm et d'autre part à la plante par une électrode de cuivre placée dans le sol. Le circuit traverse également une résistance gigaohm et un amplificateur 50x avant que les résultats soient stockés numériquement et interprétés par un ordinateur pour tracer le graphique final.
 </t>
